--- a/data_output/prism_passive/all_passive_out_strain_GMtend_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.5772117225683235</v>
+        <v>8.5772117582618002</v>
       </c>
       <c r="C2">
-        <v>1.9837337559811934</v>
+        <v>1.9837337772716697</v>
       </c>
       <c r="D2">
-        <v>14.832711047569372</v>
+        <v>14.83271108467995</v>
       </c>
       <c r="E2">
-        <v>0.56440666372861459</v>
+        <v>0.56440668594188426</v>
       </c>
       <c r="F2">
-        <v>27.389187573649419</v>
+        <v>27.389187583065951</v>
       </c>
       <c r="G2">
-        <v>6.8881337496473947</v>
+        <v>6.8881337757458265</v>
       </c>
       <c r="H2">
-        <v>-2.3999904570072075</v>
+        <v>-2.3999904346298018</v>
       </c>
       <c r="I2">
-        <v>6.5202067486918178</v>
+        <v>6.5202067732370761</v>
       </c>
       <c r="J2">
-        <v>4.430389319681959</v>
+        <v>4.4303893486686734</v>
       </c>
       <c r="K2">
-        <v>-5.5741751896947811</v>
+        <v>-5.5741751646272055</v>
       </c>
       <c r="L2">
-        <v>3.8265216170568404</v>
+        <v>3.8265216398360877</v>
       </c>
       <c r="N2">
-        <v>0.1821112290528531</v>
+        <v>0.18211125533330266</v>
       </c>
       <c r="O2">
-        <v>4.7370505695641629</v>
+        <v>4.7370505937949741</v>
       </c>
       <c r="P2">
-        <v>6.0908473419770219</v>
+        <v>6.0908473729276764</v>
       </c>
       <c r="Q2">
-        <v>1.7836427695910206</v>
+        <v>1.7836427959194643</v>
       </c>
       <c r="S2">
-        <v>9.294702521775422</v>
+        <v>9.2947025314223577</v>
       </c>
       <c r="V2">
-        <v>-1.5578919728861214</v>
+        <v>-1.5578919472483372</v>
       </c>
       <c r="W2">
-        <v>6.2998825416685058</v>
+        <v>6.2998825613599179</v>
       </c>
       <c r="X2">
-        <v>-3.0396226905144159</v>
+        <v>-3.0396226677272353</v>
       </c>
       <c r="AA2">
-        <v>1.2547387795052769</v>
+        <v>1.2547388053221988</v>
       </c>
       <c r="AB2">
-        <v>1.4939822503140183</v>
+        <v>1.4939822697638561</v>
       </c>
       <c r="AC2">
-        <v>4.7770814516780709</v>
+        <v>4.7770814815211855</v>
       </c>
       <c r="AD2">
-        <v>0.38463892386282467</v>
+        <v>0.38463896178668316</v>
       </c>
       <c r="AE2">
-        <v>-4.0841989279977398</v>
+        <v>-4.0841989245765173</v>
       </c>
       <c r="AF2">
-        <v>1.0364265819052378</v>
+        <v>1.0364265931756407</v>
       </c>
       <c r="AG2">
-        <v>0.74180477752629848</v>
+        <v>0.74180480772309787</v>
       </c>
       <c r="AH2">
-        <v>2.5272400127929808</v>
+        <v>2.5272400405881998</v>
       </c>
       <c r="AI2">
-        <v>20.166147909428137</v>
+        <v>20.166147927838342</v>
       </c>
       <c r="AJ2">
-        <v>2.621969866071364</v>
+        <v>2.6219698900487858</v>
       </c>
       <c r="AK2">
-        <v>2.2755228176927158</v>
+        <v>2.2755228384503354</v>
       </c>
       <c r="AL2">
-        <v>-4.1764981034466162</v>
+        <v>-4.1764980673830765</v>
       </c>
       <c r="AM2">
-        <v>0.71427133226341044</v>
+        <v>0.71427135648208218</v>
       </c>
       <c r="AN2">
-        <v>1.2271119478838228</v>
+        <v>1.2271119817623797</v>
       </c>
       <c r="AO2">
-        <v>-1.9936098136429741</v>
+        <v>-1.9936097843968787</v>
       </c>
       <c r="AQ2">
-        <v>0.69081179971151174</v>
+        <v>0.69081181766519206</v>
       </c>
       <c r="AR2">
-        <v>3.9105750032385589</v>
+        <v>3.9105750048398265</v>
       </c>
       <c r="AS2">
-        <v>-2.0516077303239224</v>
+        <v>-2.051607713093587</v>
       </c>
       <c r="AU2">
-        <v>2.9881763599083171E-3</v>
+        <v>2.9881936833147486E-3</v>
       </c>
       <c r="AV2">
-        <v>1.3506808226277123</v>
+        <v>1.3506808555039118</v>
       </c>
       <c r="AW2">
-        <v>-1.6865085975061482</v>
+        <v>-1.686508568665485</v>
       </c>
       <c r="AX2">
-        <v>-2.378272371687876</v>
+        <v>-2.3782723491551852</v>
       </c>
       <c r="AY2">
-        <v>-1.2059062187422567</v>
+        <v>-1.205906187699497</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.5591298901373127</v>
+        <v>7.5591299211276146</v>
       </c>
       <c r="C3">
-        <v>1.5889779112472906</v>
+        <v>1.588977932027192</v>
       </c>
       <c r="E3">
-        <v>-4.8918590996283262</v>
+        <v>-4.8918590952212329</v>
       </c>
       <c r="F3">
-        <v>10.879911591950247</v>
+        <v>10.879911612791963</v>
       </c>
       <c r="G3">
-        <v>0.50480923398271837</v>
+        <v>0.50480924917681835</v>
       </c>
       <c r="H3">
-        <v>2.1342578127747842</v>
+        <v>2.1342578419260323</v>
       </c>
       <c r="J3">
-        <v>1.4885780376564608</v>
+        <v>1.4885780644183308</v>
       </c>
       <c r="K3">
-        <v>12.07948640663192</v>
+        <v>12.079486436082314</v>
       </c>
       <c r="L3">
-        <v>-0.43262986225904621</v>
+        <v>-0.43262984557597367</v>
       </c>
       <c r="M3">
-        <v>3.1597285589655106</v>
+        <v>3.1598183858680589</v>
       </c>
       <c r="N3">
-        <v>1.2599673270514673</v>
+        <v>1.2599673483595157</v>
       </c>
       <c r="P3">
-        <v>-14.951613834873323</v>
+        <v>-14.951613814092513</v>
       </c>
       <c r="Q3">
-        <v>1.4874180005248518</v>
+        <v>1.487418029551401</v>
       </c>
       <c r="R3">
-        <v>6.0114778316795983</v>
+        <v>6.0114778601412437</v>
       </c>
       <c r="W3">
-        <v>-5.5961417684778497E-3</v>
+        <v>-5.5961045346447488E-3</v>
       </c>
       <c r="AA3">
-        <v>-0.66804223178826661</v>
+        <v>-0.66804218540913873</v>
       </c>
       <c r="AB3">
-        <v>1.7609567627273699</v>
+        <v>1.760956778603846</v>
       </c>
       <c r="AC3">
-        <v>0.20512115215783147</v>
+        <v>0.2051211853554232</v>
       </c>
       <c r="AD3">
-        <v>-1.4038519643122784</v>
+        <v>-1.4038519433435486</v>
       </c>
       <c r="AE3">
-        <v>-2.9488416827451176</v>
+        <v>-2.9488416732831682</v>
       </c>
       <c r="AF3">
-        <v>0.83712374362573605</v>
+        <v>0.83712374992926808</v>
       </c>
       <c r="AG3">
-        <v>1.2948961827561631</v>
+        <v>1.2948962070352117</v>
       </c>
       <c r="AH3">
-        <v>2.3677901478515593E-2</v>
+        <v>2.3677915340609024E-2</v>
       </c>
       <c r="AI3">
-        <v>1.8489613797666462</v>
+        <v>1.848961409379472</v>
       </c>
       <c r="AJ3">
-        <v>-2.5130898807345967</v>
+        <v>-2.5130898514750357</v>
       </c>
       <c r="AK3">
-        <v>2.7999637683126877</v>
+        <v>2.7999637911211819</v>
       </c>
       <c r="AL3">
-        <v>-3.3309561180999689</v>
+        <v>-3.3309560922243207</v>
       </c>
       <c r="AM3">
-        <v>0.96593663026132248</v>
+        <v>0.96593666598464578</v>
       </c>
       <c r="AN3">
-        <v>6.686074758505117</v>
+        <v>6.6860747891857049</v>
       </c>
       <c r="AO3">
-        <v>10.012475162961177</v>
+        <v>10.01247518976961</v>
       </c>
       <c r="AP3">
-        <v>-3.8436240094079408</v>
+        <v>-3.8436239873261937</v>
       </c>
       <c r="AQ3">
-        <v>-1.3714336763689134</v>
+        <v>-1.3714336549883439</v>
       </c>
       <c r="AS3">
-        <v>4.7561867239107816</v>
+        <v>4.7561867435433554</v>
       </c>
       <c r="AT3">
-        <v>-0.14844761705677587</v>
+        <v>-0.14844757905423467</v>
       </c>
       <c r="AU3">
-        <v>-2.0798028160641588</v>
+        <v>-2.0798027910389245</v>
       </c>
       <c r="AV3">
-        <v>-1.9825814615293997</v>
+        <v>-1.9825814139951374</v>
       </c>
       <c r="AW3">
-        <v>-1.599435636414676</v>
+        <v>-1.5994356065326791</v>
       </c>
       <c r="AX3">
-        <v>-17.171994244302919</v>
+        <v>-17.171994227341603</v>
       </c>
       <c r="AY3">
-        <v>-8.8865350441223576</v>
+        <v>-8.8865350276526414</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,253 +401,265 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>8.5772117582618002</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.9837337772716697</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>14.83271108467995</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.56440668594188426</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>27.389187583065951</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>6.8881337757458265</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-2.3999904346298018</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.5202067732370761</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.4303893486686734</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-5.5741751646272055</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.8265216398360877</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.18211125533330266</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4.7370505937949741</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.0908473729276764</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.7836427959194643</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>9.2947025314223577</v>
+        <v>9.2947226477153091</v>
       </c>
       <c r="V2">
-        <v>-1.5578919472483372</v>
+        <v>-1.5578757553344389</v>
       </c>
       <c r="W2">
-        <v>6.2998825613599179</v>
+        <v>6.2998993513847994</v>
       </c>
       <c r="X2">
-        <v>-3.0396226677272353</v>
+        <v>-3.0396424608515096</v>
       </c>
       <c r="AA2">
-        <v>1.2547388053221988</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.4939822697638561</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>4.7770814815211855</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.38463896178668316</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-4.0841989245765173</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.0364265931756407</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.74180480772309787</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.5272400405881998</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>20.166147927838342</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.6219698900487858</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.2755228384503354</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-4.1764980673830765</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.71427135648208218</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.2271119817623797</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-1.9936097843968787</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.69081181766519206</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>3.9105750048398265</v>
+        <v>3.9105936724498682</v>
       </c>
       <c r="AS2">
-        <v>-2.051607713093587</v>
+        <v>-2.0515921195136699</v>
       </c>
       <c r="AU2">
-        <v>2.9881936833147486E-3</v>
+        <v>3.0046358419790632E-3</v>
       </c>
       <c r="AV2">
         <v>1.3506808555039118</v>
       </c>
       <c r="AW2">
-        <v>-1.686508568665485</v>
+        <v>-1.6865292733265154</v>
       </c>
       <c r="AX2">
-        <v>-2.3782723491551852</v>
+        <v>-2.3782892557585904</v>
       </c>
       <c r="AY2">
         <v>-1.205906187699497</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>7.5591299211276146</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.588977932027192</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-4.8918590952212329</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.879911612791963</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.50480924917681835</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.1342578419260323</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.4885780644183308</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>12.079486436082314</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.43262984557597367</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.1598183858680589</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.2599673483595157</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-14.951613814092513</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.487418029551401</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.0114778601412437</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-5.5961045346447488E-3</v>
+        <v>-5.5787602835168249E-3</v>
       </c>
       <c r="AA3">
-        <v>-0.66804218540913873</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.760956778603846</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.2051211853554232</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-1.4038519433435486</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-2.9488416732831682</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.83712374992926808</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.2948962070352117</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>2.3677915340609024E-2</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.848961409379472</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-2.5130898514750357</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>2.7999637911211819</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-3.3309560922243207</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.96593666598464578</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>6.6860747891857049</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>10.01247518976961</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-3.8436239873261937</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-1.3714336549883439</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>4.7561867435433554</v>
       </c>
       <c r="AT3">
-        <v>-0.14844757905423467</v>
+        <v>-0.1484275819449398</v>
       </c>
       <c r="AU3">
-        <v>-2.0798027910389245</v>
+        <v>-2.079788055038863</v>
       </c>
       <c r="AV3">
-        <v>-1.9825814139951374</v>
+        <v>-1.9825979074852369</v>
       </c>
       <c r="AW3">
-        <v>-1.5994356065326791</v>
+        <v>-1.5994152631595044</v>
       </c>
       <c r="AX3">
-        <v>-17.171994227341603</v>
+        <v>-17.172009173782364</v>
       </c>
       <c r="AY3">
         <v>-8.8865350276526414</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.5772340659216937</v>
-      </c>
-      <c r="C2">
-        <v>1.1019557575407728</v>
+        <v>4.737029407806765</v>
       </c>
       <c r="D2">
-        <v>14.832711047569372</v>
+        <v>1.2270924346332597</v>
       </c>
       <c r="E2">
-        <v>-2.7530287805200562</v>
+        <v>0.69081181766519206</v>
       </c>
       <c r="F2">
         <v>27.389214360419412</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>7.5591298901373127</v>
-      </c>
       <c r="C3">
-        <v>-2.3344822501992799</v>
+        <v>6.0114943706668864</v>
+      </c>
+      <c r="D3">
+        <v>6.6860536061983291</v>
       </c>
       <c r="E3">
-        <v>-4.8918449377200739</v>
+        <v>-1.4488257248292093</v>
       </c>
       <c r="F3">
         <v>10.879889611612493</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.5772340659216937</v>
+        <v>18.42673536815974</v>
       </c>
       <c r="C2">
-        <v>1.1019557575407728</v>
+        <v>4.737029407806765</v>
       </c>
       <c r="D2">
-        <v>14.832711047569372</v>
+        <v>4.8920507547112022</v>
       </c>
       <c r="E2">
-        <v>-2.7530287805200562</v>
+        <v>1.2270924346332597</v>
       </c>
       <c r="F2">
         <v>27.389214360419412</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.5591298901373127</v>
-      </c>
-      <c r="C3">
-        <v>-2.3344822501992799</v>
+        <v>32.582619160327134</v>
+      </c>
+      <c r="D3">
+        <v>-5.1703741057961867</v>
       </c>
       <c r="E3">
-        <v>-4.8918449377200739</v>
+        <v>6.6860536061983291</v>
       </c>
       <c r="F3">
         <v>10.879889611612493</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>8.5772341016151774</v>
+      </c>
+      <c r="C2">
+        <v>1.1019557786471663</v>
+      </c>
+      <c r="D2">
+        <v>14.83271108467995</v>
+      </c>
+      <c r="E2">
+        <v>-2.7530287590395615</v>
+      </c>
+      <c r="F2">
+        <v>27.389214369835948</v>
+      </c>
+      <c r="G2">
+        <v>6.8881542190214375</v>
+      </c>
+      <c r="H2">
+        <v>-2.400007793882978</v>
+      </c>
+      <c r="I2">
+        <v>6.5202272401000236</v>
+      </c>
+      <c r="J2">
+        <v>4.4303677742996141</v>
+      </c>
+      <c r="K2">
+        <v>-5.5741927102271234</v>
+      </c>
+      <c r="L2">
+        <v>3.8265406280460246</v>
+      </c>
+      <c r="N2">
         <v>18.42673536815974</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>4.737029407806765</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>6.0908473729276764</v>
+      </c>
+      <c r="Q2">
+        <v>-12.94249235908063</v>
+      </c>
+      <c r="S2">
+        <v>9.2947226477153091</v>
+      </c>
+      <c r="V2">
+        <v>-1.5578757553344389</v>
+      </c>
+      <c r="W2">
+        <v>6.2998993513847994</v>
+      </c>
+      <c r="X2">
+        <v>-3.0396424608515096</v>
+      </c>
+      <c r="AA2">
+        <v>1.2547187222854113</v>
+      </c>
+      <c r="AB2">
+        <v>22.777811409332966</v>
+      </c>
+      <c r="AC2">
+        <v>4.7770574888028898</v>
+      </c>
+      <c r="AD2">
+        <v>4.544974736737796</v>
+      </c>
+      <c r="AE2">
+        <v>-4.0841989245765173</v>
+      </c>
+      <c r="AF2">
+        <v>1.0364458223665067</v>
+      </c>
+      <c r="AG2">
+        <v>0.74180480772309787</v>
+      </c>
+      <c r="AH2">
+        <v>2.52725934080985</v>
+      </c>
+      <c r="AI2">
+        <v>20.166173370745963</v>
+      </c>
+      <c r="AJ2">
+        <v>2.6219503229719505</v>
+      </c>
+      <c r="AK2">
+        <v>2.2755041140297947</v>
+      </c>
+      <c r="AL2">
+        <v>-4.1764980673830765</v>
+      </c>
+      <c r="AM2">
         <v>4.8920507547112022</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>1.2270924346332597</v>
       </c>
-      <c r="F2">
-        <v>27.389214360419412</v>
-      </c>
-      <c r="G2">
-        <v>6.8881541929230021</v>
-      </c>
-      <c r="H2">
-        <v>-2.4000078162603797</v>
-      </c>
-      <c r="I2">
-        <v>6.5202272155547591</v>
-      </c>
-      <c r="J2">
-        <v>4.430367745312906</v>
-      </c>
-      <c r="K2">
-        <v>-5.5741927352946936</v>
-      </c>
-      <c r="L2">
-        <v>3.8265406052667741</v>
-      </c>
-      <c r="N2">
-        <v>18.426735337093238</v>
-      </c>
-      <c r="O2">
-        <v>4.7370293835759583</v>
-      </c>
-      <c r="P2">
-        <v>6.0908473419770219</v>
-      </c>
-      <c r="Q2">
-        <v>-12.942492381599852</v>
-      </c>
-      <c r="S2">
-        <v>9.2947226380683716</v>
-      </c>
-      <c r="V2">
-        <v>-1.557875780972227</v>
-      </c>
-      <c r="W2">
-        <v>6.2998993316933829</v>
-      </c>
-      <c r="X2">
-        <v>-3.0396424836386853</v>
-      </c>
-      <c r="AA2">
-        <v>1.2547186964684942</v>
-      </c>
-      <c r="AB2">
-        <v>22.777811385804391</v>
-      </c>
-      <c r="AC2">
-        <v>4.7770574589597814</v>
-      </c>
-      <c r="AD2">
-        <v>4.5449746972422229</v>
-      </c>
-      <c r="AE2">
-        <v>-4.0841989279977398</v>
-      </c>
-      <c r="AF2">
-        <v>1.0364458110961019</v>
-      </c>
-      <c r="AG2">
-        <v>0.74180477752629848</v>
-      </c>
-      <c r="AH2">
-        <v>2.5272593130146253</v>
-      </c>
-      <c r="AI2">
-        <v>20.166173352335754</v>
-      </c>
-      <c r="AJ2">
-        <v>2.6219502989945331</v>
-      </c>
-      <c r="AK2">
-        <v>2.2755040932721791</v>
-      </c>
-      <c r="AL2">
-        <v>-4.1764981034466162</v>
-      </c>
-      <c r="AM2">
-        <v>4.8920507294879041</v>
-      </c>
-      <c r="AN2">
-        <v>1.2270924007547095</v>
-      </c>
       <c r="AO2">
-        <v>-1.9936098136429741</v>
+        <v>-1.9936097843968787</v>
       </c>
       <c r="AQ2">
-        <v>0.69081179971151174</v>
+        <v>0.69081181766519206</v>
       </c>
       <c r="AR2">
-        <v>3.9105936708486007</v>
+        <v>3.9105936724498682</v>
       </c>
       <c r="AS2">
-        <v>-2.051592136744008</v>
+        <v>-2.0515921195136699</v>
       </c>
       <c r="AU2">
-        <v>3.0046185185697832E-3</v>
+        <v>3.0046358419790632E-3</v>
       </c>
       <c r="AV2">
-        <v>1.3506808226277123</v>
+        <v>1.3506808555039118</v>
       </c>
       <c r="AW2">
-        <v>-1.6865293021671728</v>
+        <v>-1.6865292733265154</v>
       </c>
       <c r="AX2">
-        <v>-2.3782892782912772</v>
+        <v>-2.3782892557585904</v>
       </c>
       <c r="AY2">
-        <v>-1.2059062187422567</v>
+        <v>-1.205906187699497</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>7.5591299211276146</v>
+      </c>
+      <c r="C3">
+        <v>-2.3344822302219175</v>
+      </c>
+      <c r="E3">
+        <v>-4.8918449333129796</v>
+      </c>
+      <c r="F3">
+        <v>10.879889632454203</v>
+      </c>
+      <c r="G3">
+        <v>0.50482811540896777</v>
+      </c>
+      <c r="H3">
+        <v>2.1342389713017753</v>
+      </c>
+      <c r="J3">
+        <v>0.1501340481225627</v>
+      </c>
+      <c r="K3">
+        <v>12.079486436082314</v>
+      </c>
+      <c r="L3">
+        <v>-0.43264812842267786</v>
+      </c>
+      <c r="M3">
+        <v>3.1598183858680589</v>
+      </c>
+      <c r="N3">
         <v>32.582619160327134</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-14.95160051497432</v>
+      </c>
+      <c r="Q3">
+        <v>1.4873997811978563</v>
+      </c>
+      <c r="R3">
+        <v>6.0114943706668864</v>
+      </c>
+      <c r="W3">
+        <v>0.14419789019196649</v>
+      </c>
+      <c r="AA3">
+        <v>-0.66802181500333024</v>
+      </c>
+      <c r="AB3">
+        <v>3.3141535185740443</v>
+      </c>
+      <c r="AC3">
+        <v>0.20509736057817926</v>
+      </c>
+      <c r="AD3">
+        <v>-1.4038519433435486</v>
+      </c>
+      <c r="AE3">
+        <v>-2.9488238586863678</v>
+      </c>
+      <c r="AF3">
+        <v>0.83714309695796607</v>
+      </c>
+      <c r="AG3">
+        <v>1.2948962070352117</v>
+      </c>
+      <c r="AH3">
+        <v>0.11368106388222124</v>
+      </c>
+      <c r="AI3">
+        <v>0.85903639700997747</v>
+      </c>
+      <c r="AJ3">
+        <v>-2.5130720226786285</v>
+      </c>
+      <c r="AK3">
+        <v>2.7999444424748323</v>
+      </c>
+      <c r="AL3">
+        <v>-3.3309560922243207</v>
+      </c>
+      <c r="AM3">
         <v>-5.1703741057961867</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>6.6860536061983291</v>
       </c>
-      <c r="F3">
-        <v>10.879889611612493</v>
-      </c>
-      <c r="G3">
-        <v>0.50482810021486491</v>
-      </c>
-      <c r="H3">
-        <v>2.1342389421505326</v>
-      </c>
-      <c r="J3">
-        <v>0.1501340217136316</v>
-      </c>
-      <c r="K3">
-        <v>12.07948640663192</v>
-      </c>
-      <c r="L3">
-        <v>-0.43264814510574734</v>
-      </c>
-      <c r="M3">
-        <v>3.1597285589655106</v>
-      </c>
-      <c r="N3">
-        <v>32.58261913242788</v>
-      </c>
-      <c r="P3">
-        <v>-14.951600535755135</v>
-      </c>
-      <c r="Q3">
-        <v>1.487399752171312</v>
-      </c>
-      <c r="R3">
-        <v>6.0114943422052374</v>
-      </c>
-      <c r="W3">
-        <v>0.14419785290477613</v>
-      </c>
-      <c r="AA3">
-        <v>-0.66802186138246777</v>
-      </c>
-      <c r="AB3">
-        <v>3.3141535024552424</v>
-      </c>
-      <c r="AC3">
-        <v>0.20509732738059538</v>
-      </c>
-      <c r="AD3">
-        <v>-1.4038519643122784</v>
-      </c>
-      <c r="AE3">
-        <v>-2.9488238681483194</v>
-      </c>
-      <c r="AF3">
-        <v>0.83714309065443282</v>
-      </c>
-      <c r="AG3">
-        <v>1.2948961827561631</v>
-      </c>
-      <c r="AH3">
-        <v>0.11368105279852385</v>
-      </c>
-      <c r="AI3">
-        <v>0.8590363676849746</v>
-      </c>
-      <c r="AJ3">
-        <v>-2.5130720519381944</v>
-      </c>
-      <c r="AK3">
-        <v>2.7999444196663421</v>
-      </c>
-      <c r="AL3">
-        <v>-3.3309561180999689</v>
-      </c>
-      <c r="AM3">
-        <v>-5.1703741393483877</v>
-      </c>
-      <c r="AN3">
-        <v>6.6860535755177493</v>
-      </c>
       <c r="AO3">
-        <v>10.012475162961177</v>
+        <v>10.01247518976961</v>
       </c>
       <c r="AP3">
-        <v>-3.8436403656266398</v>
+        <v>-3.8436403435448963</v>
       </c>
       <c r="AQ3">
-        <v>-1.4488257495408008</v>
+        <v>-1.4488257248292093</v>
       </c>
       <c r="AS3">
-        <v>4.7561867239107816</v>
+        <v>4.7561867435433554</v>
       </c>
       <c r="AT3">
-        <v>-0.14842761994748863</v>
+        <v>-0.1484275819449398</v>
       </c>
       <c r="AU3">
-        <v>-2.0797880800641004</v>
+        <v>-2.079788055038863</v>
       </c>
       <c r="AV3">
-        <v>-1.9825979550194912</v>
+        <v>-1.9825979074852369</v>
       </c>
       <c r="AW3">
-        <v>-1.5994152930415075</v>
+        <v>-1.5994152631595044</v>
       </c>
       <c r="AX3">
-        <v>-17.17200919074368</v>
+        <v>-17.172009173782364</v>
       </c>
       <c r="AY3">
-        <v>-8.8865350441223576</v>
+        <v>-8.8865350276526414</v>
       </c>
     </row>
   </sheetData>
